--- a/zeroth_review/xlsx/gantt_chart.xlsx
+++ b/zeroth_review/xlsx/gantt_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final_year_project\zeroth_review\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3AF72-5049-4F76-BFB2-72B6297F50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40639A9-7115-48C2-BE2D-97FB9C8B2306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED3B-40B7-95A1-E37FBBA2B689}"/>
+              <c16:uniqueId val="{00000000-AD6C-49C0-86AB-7E52400481BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -364,7 +364,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -481,7 +483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED3B-40B7-95A1-E37FBBA2B689}"/>
+              <c16:uniqueId val="{00000001-AD6C-49C0-86AB-7E52400481BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -788,9 +790,9 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="accent1">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1370,17 +1372,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>43286</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>174287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BC6C08-6E7B-4DF2-A80D-2F7EFE430B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBA455B-921A-4AF0-B4D1-96D68942DA4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1703,7 +1705,7 @@
         <v>45693</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D16" si="0">C2-B2</f>
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
@@ -1720,7 +1722,7 @@
         <v>45699</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1735,7 +1737,7 @@
         <v>45700</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1752,7 @@
         <v>45712</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1765,7 +1767,7 @@
         <v>45720</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1780,7 +1782,7 @@
         <v>45721</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1797,7 @@
         <v>45728</v>
       </c>
       <c r="D8">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1810,7 +1812,7 @@
         <v>45732</v>
       </c>
       <c r="D9">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1825,7 +1827,7 @@
         <v>45737</v>
       </c>
       <c r="D10">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1840,7 +1842,7 @@
         <v>45744</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1855,7 +1857,7 @@
         <v>45749</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1872,7 @@
         <v>45758</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1885,7 +1887,7 @@
         <v>45763</v>
       </c>
       <c r="D14">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1900,7 +1902,7 @@
         <v>45772</v>
       </c>
       <c r="D15">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1915,7 +1917,7 @@
         <v>45777</v>
       </c>
       <c r="D16">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1933,7 +1935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180636BF-4A03-494A-9818-5A3F303CEEE5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
